--- a/araç web site mock-up.xlsx
+++ b/araç web site mock-up.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faruk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faruk\OneDrive\Belgeler\GitHub\devops-dersler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{899C60B3-1B41-4EC7-A5A0-63EE6D4152B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844AB31-F237-4752-84B8-5C2775EFCD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CFAE102-0AFE-4949-B11C-41DB58945217}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANA BÖLÜM" sheetId="1" r:id="rId1"/>
+    <sheet name="MOCK UP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,20 +100,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -4405,7 +4403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D8D16F-50D4-47D9-BD91-22D872A0915B}">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
@@ -4418,7 +4416,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4440,7 +4438,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4462,7 +4460,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4484,7 +4482,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4506,7 +4504,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4528,7 +4526,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4550,7 +4548,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4572,7 +4570,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4594,7 +4592,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4768,7 +4766,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4790,7 +4788,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4812,7 +4810,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4834,7 +4832,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4856,7 +4854,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4878,7 +4876,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4899,14 +4897,8 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4927,14 +4919,8 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4955,14 +4941,8 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4983,14 +4963,8 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5011,14 +4985,8 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5039,14 +5007,8 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5067,1860 +5029,6 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6930,6 +5038,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x0101000A1DF00842140748815A04EA9E588C1F" ma:contentTypeVersion="2" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="7b0ee3e263799277bdf52953afd24d58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="251df238-17f6-48a1-b757-32b3490585fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8797848994f77d991c347821f471744c" ns3:_="">
     <xsd:import namespace="251df238-17f6-48a1-b757-32b3490585fa"/>
@@ -7061,22 +5184,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54442201-3C09-4259-84C4-83F7BB87C148}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3093A761-10BB-4209-838F-2B0CD61ECF01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A195B30-BD28-4289-B22B-FEBBEF2F92AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7092,18 +5214,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3093A761-10BB-4209-838F-2B0CD61ECF01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54442201-3C09-4259-84C4-83F7BB87C148}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/araç web site mock-up.xlsx
+++ b/araç web site mock-up.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faruk\OneDrive\Belgeler\GitHub\devops-dersler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844AB31-F237-4752-84B8-5C2775EFCD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700BF927-4DFA-4EB1-8247-EE884BC57D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CFAE102-0AFE-4949-B11C-41DB58945217}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5CFAE102-0AFE-4949-B11C-41DB58945217}"/>
   </bookViews>
   <sheets>
     <sheet name="MOCK UP" sheetId="1" r:id="rId1"/>
+    <sheet name="BOARD TASARIM" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Board">'BOARD TASARIM'!$B$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,9 +39,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>İs Listesi</t>
+  </si>
+  <si>
+    <t>Yapılıyor</t>
+  </si>
+  <si>
+    <t>Test Aşamasında</t>
+  </si>
+  <si>
+    <t>Test Başarılı</t>
+  </si>
+  <si>
+    <t>Deploy Edildi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +96,22 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic Light"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,8 +124,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -95,12 +163,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -112,6 +307,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -311,15 +533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>211231</xdr:colOff>
+      <xdr:colOff>177614</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>46504</xdr:rowOff>
+      <xdr:rowOff>68915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>592231</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>189379</xdr:rowOff>
+      <xdr:colOff>558614</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -334,7 +556,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7539878" y="999004"/>
+          <a:off x="7506261" y="1021415"/>
           <a:ext cx="1591235" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -577,9 +799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>444262</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179020</xdr:rowOff>
+      <xdr:colOff>410645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10931</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -598,7 +820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6609381" y="627681"/>
-          <a:ext cx="1163528" cy="503839"/>
+          <a:ext cx="1129911" cy="526250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3602,9 +3824,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>401731</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>189379</xdr:rowOff>
+      <xdr:colOff>368114</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3628,8 +3850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8335496" y="1903879"/>
-          <a:ext cx="126347" cy="338978"/>
+          <a:off x="8301879" y="1926290"/>
+          <a:ext cx="159964" cy="316567"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4101,6 +4323,490 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Dikdörtgen: Köşeleri Yuvarlatılmış 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3A766D-0739-1BC8-3B7C-DA740DFE3A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="228600"/>
+          <a:ext cx="1438275" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Uygulama</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> ana sayfasının tasarımının yapılması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Dikdörtgen: Köşeleri Yuvarlatılmış 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B888EF17-05E3-47E1-9853-0535EF1D8359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="228600"/>
+          <a:ext cx="1438275" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Araç</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> alma sayfasının tasarımının yapılması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Dikdörtgen: Köşeleri Yuvarlatılmış 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6408D3E-FCC6-4C43-8AA4-99722FB63AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="247650"/>
+          <a:ext cx="1438275" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Sitedeki</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> tüm araçlar için database hazırlanması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Dikdörtgen: Köşeleri Yuvarlatılmış 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA6B527-9AB0-4836-970E-8E04396A500D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="342900"/>
+          <a:ext cx="1695450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Araç</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> al sayfasındaki filteleme fonksiyonlarının hazırlanması</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Dikdörtgen: Köşeleri Yuvarlatılmış 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0680B360-105C-493E-8661-2B2E650A2C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="990600"/>
+          <a:ext cx="1438275" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Araç satma sayfasının</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> tasarımının yapılması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Dikdörtgen: Köşeleri Yuvarlatılmış 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE8D77E-4750-459A-8CDF-5FEA09449F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638549" y="1666875"/>
+          <a:ext cx="1647826" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Araç değerleme fonkiyonlarının</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t> hazırlanması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943101</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Dikdörtgen: Köşeleri Yuvarlatılmış 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E224344-8180-48CB-84EC-DAF968ACAC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="371475"/>
+          <a:ext cx="1647826" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900"/>
+            <a:t>Site</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="900" baseline="0"/>
+            <a:t>ye kullanıcılar için log-in sayfası hazılranması</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4405,7 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D8D16F-50D4-47D9-BD91-22D872A0915B}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -5037,6 +5743,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2252859-13FE-43C0-BB7F-6D908138029F}">
+  <dimension ref="B1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="14"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="14"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="14"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5044,15 +5935,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x0101000A1DF00842140748815A04EA9E588C1F" ma:contentTypeVersion="2" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="7b0ee3e263799277bdf52953afd24d58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="251df238-17f6-48a1-b757-32b3490585fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8797848994f77d991c347821f471744c" ns3:_="">
     <xsd:import namespace="251df238-17f6-48a1-b757-32b3490585fa"/>
@@ -5184,6 +6066,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54442201-3C09-4259-84C4-83F7BB87C148}">
   <ds:schemaRefs/>
@@ -5191,14 +6082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3093A761-10BB-4209-838F-2B0CD61ECF01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A195B30-BD28-4289-B22B-FEBBEF2F92AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5214,4 +6097,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3093A761-10BB-4209-838F-2B0CD61ECF01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/araç web site mock-up.xlsx
+++ b/araç web site mock-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faruk\OneDrive\Belgeler\GitHub\devops-dersler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700BF927-4DFA-4EB1-8247-EE884BC57D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF87CAD-B235-4E1E-9A34-690EF4F9FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5CFAE102-0AFE-4949-B11C-41DB58945217}"/>
   </bookViews>
@@ -4401,13 +4401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:colOff>1495425</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -4424,8 +4424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7648575" y="228600"/>
-          <a:ext cx="1438275" cy="447675"/>
+          <a:off x="7686675" y="266700"/>
+          <a:ext cx="1438275" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4537,15 +4537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:colOff>2085975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4560,8 +4560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648075" y="342900"/>
-          <a:ext cx="1695450" cy="504825"/>
+          <a:off x="3695700" y="400050"/>
+          <a:ext cx="1695450" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4608,15 +4608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:colOff>1838325</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4631,8 +4631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3724275" y="990600"/>
-          <a:ext cx="1438275" cy="447675"/>
+          <a:off x="3705225" y="1104900"/>
+          <a:ext cx="1438275" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4676,15 +4676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4699,8 +4699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638549" y="1666875"/>
-          <a:ext cx="1647826" cy="447675"/>
+          <a:off x="3705224" y="1790700"/>
+          <a:ext cx="1647826" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5748,7 +5748,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
